--- a/Book.xlsx
+++ b/Book.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="512" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
   <si>
     <t>512*512</t>
   </si>
@@ -126,6 +126,12 @@
   <si>
     <t>0.17 - 0.20</t>
   </si>
+  <si>
+    <t>avg_magn(beta), 512x512, 500 steps, avg=50</t>
+  </si>
+  <si>
+    <t>64x64, avg_magn(beta), 250 steps, avg=50</t>
+  </si>
 </sst>
 </file>
 
@@ -135,7 +141,7 @@
     <numFmt numFmtId="164" formatCode="0.00000000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +155,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,13 +184,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -336,11 +356,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="228035296"/>
-        <c:axId val="317245728"/>
+        <c:axId val="247823456"/>
+        <c:axId val="247823848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="228035296"/>
+        <c:axId val="247823456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -397,12 +417,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317245728"/>
+        <c:crossAx val="247823848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="317245728"/>
+        <c:axId val="247823848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -459,7 +479,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228035296"/>
+        <c:crossAx val="247823456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -473,7 +493,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -740,11 +759,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="317745048"/>
-        <c:axId val="317742304"/>
+        <c:axId val="250166176"/>
+        <c:axId val="250169312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="317745048"/>
+        <c:axId val="250166176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -801,12 +820,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317742304"/>
+        <c:crossAx val="250169312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="317742304"/>
+        <c:axId val="250169312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -863,7 +882,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317745048"/>
+        <c:crossAx val="250166176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1143,11 +1162,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="317742696"/>
-        <c:axId val="317743480"/>
+        <c:axId val="250168136"/>
+        <c:axId val="250169704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="317742696"/>
+        <c:axId val="250168136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1204,12 +1223,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317743480"/>
+        <c:crossAx val="250169704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="317743480"/>
+        <c:axId val="250169704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1266,7 +1285,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317742696"/>
+        <c:crossAx val="250168136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1546,11 +1565,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="317745440"/>
-        <c:axId val="317744264"/>
+        <c:axId val="250168920"/>
+        <c:axId val="250170096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="317745440"/>
+        <c:axId val="250168920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1607,12 +1626,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317744264"/>
+        <c:crossAx val="250170096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="317744264"/>
+        <c:axId val="250170096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1669,7 +1688,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317745440"/>
+        <c:crossAx val="250168920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1949,11 +1968,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="317246512"/>
-        <c:axId val="317246904"/>
+        <c:axId val="250170488"/>
+        <c:axId val="250163040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="317246512"/>
+        <c:axId val="250170488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2010,12 +2029,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317246904"/>
+        <c:crossAx val="250163040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="317246904"/>
+        <c:axId val="250163040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2072,7 +2091,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317246512"/>
+        <c:crossAx val="250170488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2352,11 +2371,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="317242200"/>
-        <c:axId val="317248472"/>
+        <c:axId val="250167744"/>
+        <c:axId val="250164608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="317242200"/>
+        <c:axId val="250167744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2413,12 +2432,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317248472"/>
+        <c:crossAx val="250164608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="317248472"/>
+        <c:axId val="250164608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2475,7 +2494,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317242200"/>
+        <c:crossAx val="250167744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2489,6 +2508,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2755,11 +2775,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="317647568"/>
-        <c:axId val="317646392"/>
+        <c:axId val="250166568"/>
+        <c:axId val="250165392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="317647568"/>
+        <c:axId val="250166568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2816,12 +2836,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317646392"/>
+        <c:crossAx val="250165392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="317646392"/>
+        <c:axId val="250165392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2878,7 +2898,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317647568"/>
+        <c:crossAx val="250166568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2892,6 +2912,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3158,11 +3179,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="317642472"/>
-        <c:axId val="317641296"/>
+        <c:axId val="250166960"/>
+        <c:axId val="250168528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="317642472"/>
+        <c:axId val="250166960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3219,12 +3240,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317641296"/>
+        <c:crossAx val="250168528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="317641296"/>
+        <c:axId val="250168528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3281,7 +3302,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317642472"/>
+        <c:crossAx val="250166960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3295,6 +3316,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3561,11 +3583,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="317640512"/>
-        <c:axId val="317644824"/>
+        <c:axId val="305608128"/>
+        <c:axId val="305606560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="317640512"/>
+        <c:axId val="305608128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3622,12 +3644,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317644824"/>
+        <c:crossAx val="305606560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="317644824"/>
+        <c:axId val="305606560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3684,7 +3706,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317640512"/>
+        <c:crossAx val="305608128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3698,6 +3720,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3778,90 +3801,314 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5576134523954879E-2"/>
+          <c:y val="7.114331723027377E-2"/>
+          <c:w val="0.90047685259952814"/>
+          <c:h val="0.80583488658120639"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Гистограммы!$A$3:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'64'!$A$90:$A$130</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.00 - 0.02</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.02 - 0.05</c:v>
+                  <c:v>0.35499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.05 - 0.07</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.07 - 0.09</c:v>
+                  <c:v>0.36499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.09 - 0.11</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11 - 0.13</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13 - 0.15</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Гистограммы!$B$3:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.40500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.41499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.435</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.45500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.46500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.48499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.495</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.505</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.51500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.52500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.53500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.54500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4432-4AC5-9DBB-6CD2BE10F32E}"/>
-            </c:ext>
-          </c:extLst>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'64'!$B$90:$B$130</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>4.8279799999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6070299999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6070299999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5165499999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7104399999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5140499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4332300000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.14577E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0449399999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.4768100000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.6977500000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.64247E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0019500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.66592E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.10077E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.15895E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.36442E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9256099999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8558700000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.1695900000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.12382799999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.487954</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.70383600000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.73507900000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.72591899999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.73445099999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.74876399999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.74620399999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.76512999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.76383699999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.77643899999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.77280599999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.77211700000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.774003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.78425</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.77840200000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.79041899999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.78895700000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.78975600000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.79724899999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.81137499999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3871,29 +4118,43 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="317642864"/>
-        <c:axId val="317640904"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="317642864"/>
+        <c:axId val="438775448"/>
+        <c:axId val="438772312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="438775448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.55000000000000004"/>
+          <c:min val="0.35000000000000003"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -3920,17 +4181,15 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317640904"/>
+        <c:crossAx val="438772312"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="317640904"/>
+        <c:axId val="438772312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3948,14 +4207,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3979,9 +4244,10 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317642864"/>
+        <c:crossAx val="438775448"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3991,38 +4257,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4033,10 +4267,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="accent1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -4096,9 +4327,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Гистограммы!$A$27:$A$34</c:f>
+              <c:f>Гистограммы!$A$3:$A$9</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.00 - 0.02</c:v>
                 </c:pt>
@@ -4109,51 +4340,45 @@
                   <c:v>0.05 - 0.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.07 - 0.10</c:v>
+                  <c:v>0.07 - 0.09</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10 - 0.12</c:v>
+                  <c:v>0.09 - 0.11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12 - 0.15</c:v>
+                  <c:v>0.11 - 0.13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15 - 0.17</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.17 - 0.20</c:v>
+                  <c:v>0.13 - 0.15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Гистограммы!$B$27:$B$34</c:f>
+              <c:f>Гистограммы!$B$3:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -4161,7 +4386,7 @@
           </c:val>
           <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1ABF-45E4-AFD6-B0A900DB0A1E}"/>
+              <c16:uniqueId val="{00000000-4432-4AC5-9DBB-6CD2BE10F32E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4175,11 +4400,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="317644040"/>
-        <c:axId val="317643648"/>
+        <c:axId val="305606168"/>
+        <c:axId val="305602640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="317644040"/>
+        <c:axId val="305606168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4222,7 +4447,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317643648"/>
+        <c:crossAx val="305602640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4230,7 +4455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="317643648"/>
+        <c:axId val="305602640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4281,7 +4506,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317644040"/>
+        <c:crossAx val="305606168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4295,7 +4520,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4562,11 +4786,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="317242984"/>
-        <c:axId val="317244552"/>
+        <c:axId val="247822672"/>
+        <c:axId val="247821496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="317242984"/>
+        <c:axId val="247822672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4623,12 +4847,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317244552"/>
+        <c:crossAx val="247821496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="317244552"/>
+        <c:axId val="247821496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4685,7 +4909,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317242984"/>
+        <c:crossAx val="247822672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4699,7 +4923,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4783,6 +5006,307 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Гистограммы!$A$27:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.00 - 0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02 - 0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05 - 0.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.07 - 0.10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10 - 0.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12 - 0.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15 - 0.17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17 - 0.20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Гистограммы!$B$27:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1ABF-45E4-AFD6-B0A900DB0A1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="305608912"/>
+        <c:axId val="305603816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="305608912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="305603816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="305603816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="305608912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -6756,11 +7280,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="317644432"/>
-        <c:axId val="317645216"/>
+        <c:axId val="305609696"/>
+        <c:axId val="305607736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="317644432"/>
+        <c:axId val="305609696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6817,12 +7341,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317645216"/>
+        <c:crossAx val="305607736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="317645216"/>
+        <c:axId val="305607736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6879,7 +7403,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317644432"/>
+        <c:crossAx val="305609696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6893,7 +7417,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7160,11 +7683,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="317243376"/>
-        <c:axId val="317241416"/>
+        <c:axId val="247822280"/>
+        <c:axId val="249053584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="317243376"/>
+        <c:axId val="247822280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7221,12 +7744,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317241416"/>
+        <c:crossAx val="249053584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="317241416"/>
+        <c:axId val="249053584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7283,7 +7806,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317243376"/>
+        <c:crossAx val="247822280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7297,7 +7820,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7564,11 +8086,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="317244944"/>
-        <c:axId val="317248080"/>
+        <c:axId val="249054368"/>
+        <c:axId val="249054760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="317244944"/>
+        <c:axId val="249054368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7625,12 +8147,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317248080"/>
+        <c:crossAx val="249054760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="317248080"/>
+        <c:axId val="249054760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7687,7 +8209,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317244944"/>
+        <c:crossAx val="249054368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7968,11 +8490,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="317241024"/>
-        <c:axId val="317242592"/>
+        <c:axId val="249059464"/>
+        <c:axId val="249055152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="317241024"/>
+        <c:axId val="249059464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8029,12 +8551,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317242592"/>
+        <c:crossAx val="249055152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="317242592"/>
+        <c:axId val="249055152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8091,7 +8613,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317241024"/>
+        <c:crossAx val="249059464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8105,7 +8627,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8372,11 +8893,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="317245336"/>
-        <c:axId val="317743088"/>
+        <c:axId val="249053192"/>
+        <c:axId val="249056328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="317245336"/>
+        <c:axId val="249053192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8433,12 +8954,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317743088"/>
+        <c:crossAx val="249056328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="317743088"/>
+        <c:axId val="249056328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8495,7 +9016,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317245336"/>
+        <c:crossAx val="249053192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8509,7 +9030,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8590,72 +9110,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>avg_magn(beta),</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>512x512, 500 steps, avg=50</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -8974,11 +9429,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="317746224"/>
-        <c:axId val="317740736"/>
+        <c:axId val="249055936"/>
+        <c:axId val="249056720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="317746224"/>
+        <c:axId val="249055936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9035,13 +9490,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317740736"/>
+        <c:crossAx val="249056720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="317740736"/>
+        <c:axId val="249056720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9098,7 +9553,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317746224"/>
+        <c:crossAx val="249055936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9347,11 +9802,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="317744656"/>
-        <c:axId val="317739952"/>
+        <c:axId val="249057896"/>
+        <c:axId val="249058680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="317744656"/>
+        <c:axId val="249057896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9408,12 +9863,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317739952"/>
+        <c:crossAx val="249058680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="317739952"/>
+        <c:axId val="249058680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9470,7 +9925,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317744656"/>
+        <c:crossAx val="249057896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9750,11 +10205,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="317738776"/>
-        <c:axId val="317740344"/>
+        <c:axId val="249052016"/>
+        <c:axId val="249052408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="317738776"/>
+        <c:axId val="249052016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9811,12 +10266,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317740344"/>
+        <c:crossAx val="249052408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="317740344"/>
+        <c:axId val="249052408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9873,7 +10328,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317738776"/>
+        <c:crossAx val="249052016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10473,6 +10928,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -15398,7 +15893,7 @@
 </file>
 
 <file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -15425,8 +15920,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -15527,7 +16022,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -15559,10 +16054,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -15602,22 +16097,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -15722,8 +16218,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -15855,19 +16351,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -15881,6 +16378,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -16920,6 +17428,509 @@
 </file>
 
 <file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -21067,7 +22078,7 @@
         <xdr:cNvPr id="9" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BB96241-AA4A-47E4-A007-EB0CA5D6E32C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8BB96241-AA4A-47E4-A007-EB0CA5D6E32C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21103,10 +22114,10 @@
         <xdr:cNvPr id="10" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88A193ED-6BEC-4575-8C17-7AA1BE1651E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{88A193ED-6BEC-4575-8C17-7AA1BE1651E3}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8BB96241-AA4A-47E4-A007-EB0CA5D6E32C}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{8BB96241-AA4A-47E4-A007-EB0CA5D6E32C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21142,10 +22153,10 @@
         <xdr:cNvPr id="2" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C8F9554-C323-466D-8B4F-6A8DDC4A65ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2C8F9554-C323-466D-8B4F-6A8DDC4A65ED}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2F771EF1-F5F0-467B-9B31-CC3DFCF2216F}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{2F771EF1-F5F0-467B-9B31-CC3DFCF2216F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21181,10 +22192,10 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{700ED68D-DA17-4036-B00B-D1140CC9668F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{700ED68D-DA17-4036-B00B-D1140CC9668F}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2C8F9554-C323-466D-8B4F-6A8DDC4A65ED}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{2C8F9554-C323-466D-8B4F-6A8DDC4A65ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21220,10 +22231,10 @@
         <xdr:cNvPr id="3" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE599526-3F19-4C7B-AEDE-0BF50706898D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BE599526-3F19-4C7B-AEDE-0BF50706898D}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{700ED68D-DA17-4036-B00B-D1140CC9668F}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{700ED68D-DA17-4036-B00B-D1140CC9668F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21259,10 +22270,10 @@
         <xdr:cNvPr id="4" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41D150D0-AE21-45CD-9471-2D6C32ADEC93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41D150D0-AE21-45CD-9471-2D6C32ADEC93}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BE599526-3F19-4C7B-AEDE-0BF50706898D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{BE599526-3F19-4C7B-AEDE-0BF50706898D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21333,7 +22344,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F61BC3FA-2FED-4183-8942-02C720B0D2E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F61BC3FA-2FED-4183-8942-02C720B0D2E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21369,10 +22380,10 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5FF964E-83B7-4357-BEEA-35E0D5388A7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B5FF964E-83B7-4357-BEEA-35E0D5388A7F}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F61BC3FA-2FED-4183-8942-02C720B0D2E7}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{F61BC3FA-2FED-4183-8942-02C720B0D2E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21408,10 +22419,10 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{977F83AB-9D5F-4420-9EA9-4BA417C4BFF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{977F83AB-9D5F-4420-9EA9-4BA417C4BFF2}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B5FF964E-83B7-4357-BEEA-35E0D5388A7F}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{B5FF964E-83B7-4357-BEEA-35E0D5388A7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21452,10 +22463,10 @@
         <xdr:cNvPr id="2" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7965A1-2361-4377-B3F3-0D138521C9D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7965A1-2361-4377-B3F3-0D138521C9D8}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{88A193ED-6BEC-4575-8C17-7AA1BE1651E3}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{88A193ED-6BEC-4575-8C17-7AA1BE1651E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21493,10 +22504,10 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{432F46DA-409F-4E9F-8A68-36C7CB38391B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{432F46DA-409F-4E9F-8A68-36C7CB38391B}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0A7965A1-2361-4377-B3F3-0D138521C9D8}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{0A7965A1-2361-4377-B3F3-0D138521C9D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21532,10 +22543,10 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4A6D5FE-3235-4DA8-B09E-F452202FBEF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4A6D5FE-3235-4DA8-B09E-F452202FBEF3}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{432F46DA-409F-4E9F-8A68-36C7CB38391B}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{432F46DA-409F-4E9F-8A68-36C7CB38391B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21576,10 +22587,10 @@
         <xdr:cNvPr id="2" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51BDEF58-5110-4913-B1B0-F770964E09A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51BDEF58-5110-4913-B1B0-F770964E09A8}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2C8F9554-C323-466D-8B4F-6A8DDC4A65ED}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{2C8F9554-C323-466D-8B4F-6A8DDC4A65ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21617,10 +22628,10 @@
         <xdr:cNvPr id="3" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A17D7F28-B07E-4D22-B8B1-488D3D653098}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A17D7F28-B07E-4D22-B8B1-488D3D653098}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{51BDEF58-5110-4913-B1B0-F770964E09A8}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{51BDEF58-5110-4913-B1B0-F770964E09A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21658,10 +22669,10 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4BD04D4-C98A-4201-B716-C05D3D33DF05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4BD04D4-C98A-4201-B716-C05D3D33DF05}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A17D7F28-B07E-4D22-B8B1-488D3D653098}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{A17D7F28-B07E-4D22-B8B1-488D3D653098}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21697,10 +22708,10 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DA5BCE1-7D24-408C-ABB2-BC0D39CB52A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4DA5BCE1-7D24-408C-ABB2-BC0D39CB52A2}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C4BD04D4-C98A-4201-B716-C05D3D33DF05}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{C4BD04D4-C98A-4201-B716-C05D3D33DF05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21713,6 +22724,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -21741,7 +22782,7 @@
         <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B12EFE61-6C56-465F-AC41-EC99B196FF22}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B12EFE61-6C56-465F-AC41-EC99B196FF22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21777,10 +22818,10 @@
         <xdr:cNvPr id="4" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE97B47C-8592-4368-8578-A67A875A04A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DE97B47C-8592-4368-8578-A67A875A04A1}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B12EFE61-6C56-465F-AC41-EC99B196FF22}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{B12EFE61-6C56-465F-AC41-EC99B196FF22}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21821,10 +22862,10 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B6BA0C7-A73E-4A89-822C-32202BC94AFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7B6BA0C7-A73E-4A89-822C-32202BC94AFB}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1CBB9DF9-9D10-4519-A8D9-E8FE76451787}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{1CBB9DF9-9D10-4519-A8D9-E8FE76451787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22144,8 +23185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA126"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="P96" sqref="P96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23026,6 +24067,15 @@
         <v>5.8489600000000003E-2</v>
       </c>
     </row>
+    <row r="83" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+    </row>
     <row r="84" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>0.02</v>
@@ -23372,6 +24422,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A83:E83"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -24437,10 +25490,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="R102" sqref="R102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25073,7 +26126,7 @@
         <v>0.40938099999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0.65</v>
       </c>
@@ -25081,7 +26134,7 @@
         <v>0.45149499999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0.7</v>
       </c>
@@ -25089,7 +26142,7 @@
         <v>0.46994599999999997</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0.75</v>
       </c>
@@ -25097,7 +26150,7 @@
         <v>0.47711199999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>0.8</v>
       </c>
@@ -25105,7 +26158,7 @@
         <v>0.46785300000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0.85</v>
       </c>
@@ -25113,7 +26166,7 @@
         <v>0.50790400000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0.9</v>
       </c>
@@ -25121,7 +26174,7 @@
         <v>0.46595500000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0.95</v>
       </c>
@@ -25129,9 +26182,350 @@
         <v>0.45844699999999999</v>
       </c>
     </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="B90" s="5">
+        <v>4.8279799999999999E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="5">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="B91" s="5">
+        <v>3.6070299999999998E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="B92" s="5">
+        <v>3.6070299999999998E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="5">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="B93" s="5">
+        <v>8.5165499999999995E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="B94" s="5">
+        <v>1.7104399999999999E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="B95" s="5">
+        <v>1.5140499999999999E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="B96" s="5">
+        <v>3.4332300000000003E-5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="5">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="B97" s="5">
+        <v>2.14577E-4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="B98" s="5">
+        <v>5.0449399999999997E-4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="5">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="B99" s="5">
+        <v>7.4768100000000004E-4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="B100" s="5">
+        <v>8.6977500000000006E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="5">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="B101" s="5">
+        <v>1.64247E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="B102" s="5">
+        <v>1.0019500000000001E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="5">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="B103" s="5">
+        <v>3.66592E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="B104" s="5">
+        <v>1.10077E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="5">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="B105" s="5">
+        <v>3.15895E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="B106" s="5">
+        <v>5.36442E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="5">
+        <v>0.435</v>
+      </c>
+      <c r="B107" s="5">
+        <v>1.9256099999999999E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="B108" s="5">
+        <v>1.8558700000000001E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="5">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="B109" s="5">
+        <v>7.1695900000000007E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="B110" s="5">
+        <v>0.12382799999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="5">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="B111" s="5">
+        <v>0.487954</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="B112" s="5">
+        <v>0.70383600000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="5">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="B113" s="5">
+        <v>0.73507900000000004</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="5">
+        <v>0.47</v>
+      </c>
+      <c r="B114" s="5">
+        <v>0.72591899999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="5">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="B115" s="5">
+        <v>0.73445099999999996</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="B116" s="5">
+        <v>0.74876399999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="5">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="B117" s="5">
+        <v>0.74620399999999998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="B118" s="5">
+        <v>0.76512999999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="5">
+        <v>0.495</v>
+      </c>
+      <c r="B119" s="5">
+        <v>0.76383699999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="B120" s="5">
+        <v>0.77643899999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="5">
+        <v>0.505</v>
+      </c>
+      <c r="B121" s="5">
+        <v>0.77280599999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="5">
+        <v>0.51</v>
+      </c>
+      <c r="B122" s="5">
+        <v>0.77211700000000005</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="5">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="B123" s="5">
+        <v>0.774003</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="B124" s="5">
+        <v>0.78425</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="5">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="B125" s="5">
+        <v>0.77840200000000004</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="B126" s="5">
+        <v>0.79041899999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="5">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="B127" s="5">
+        <v>0.78895700000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="5">
+        <v>0.54</v>
+      </c>
+      <c r="B128" s="5">
+        <v>0.78975600000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="5">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="B129" s="5">
+        <v>0.79724899999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B130" s="5">
+        <v>0.81137499999999996</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A89:E89"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -25313,7 +26707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
